--- a/test/fixtures/files/UAR_March_2017_basic_test.xlsx
+++ b/test/fixtures/files/UAR_March_2017_basic_test.xlsx
@@ -51,20 +51,22 @@
     <t>Stock item</t>
   </si>
   <si>
-    <t>PAS12003</t>
-  </si>
-  <si>
-    <t>Faella Ziti Tagliati 500g/20</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>OLI1000</t>
+    <t>Pianogrillo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Pianogrillo</t>
+    <t>OLI00134</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAS12000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faella Spaghetti 500g/20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,11 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="11"/>
@@ -544,10 +546,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -567,10 +569,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -591,13 +593,13 @@
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="12" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -619,12 +621,9 @@
       <c r="F6" s="12"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="15"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="1.25" bottom="0.65277777777777779" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;"Arial"&amp;12&amp;BGustiamo, Inc.&amp;B
 &amp;11&amp;BInventory Unit Activity Report&amp;B
